--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200331.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200331.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\ok\20200331\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4D5DE0-1CB2-40BE-BCCB-CE0422D9CAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A67228-5EF2-4FAA-B37E-02BF05625839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9664" uniqueCount="3315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9768" uniqueCount="3365">
   <si>
     <t>统计级别</t>
   </si>
@@ -10354,9 +10354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不能填0</t>
-  </si>
-  <si>
     <t>新增无症状感染人数</t>
   </si>
   <si>
@@ -10373,6 +10370,460 @@
   </si>
   <si>
     <t>累计无症状感染死亡人数</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/2542108667/4488895788324869</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者1例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者2例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者3例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者4例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者5例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者6例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者7例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者8例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者9例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者10例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者11例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者12例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者13例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者14例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者15例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者16例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者17例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者18例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者19例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者20例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者21例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者22例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者23例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者24例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者25例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者26例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者27例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者28例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者29例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者30例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者31例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者32例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者33例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者34例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者35例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者36例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者37例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者38例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者39例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者40例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者41例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者42例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者43例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者44例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者45例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者46例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者47例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者48例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者49例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
+  </si>
+  <si>
+    <t>截至4月1日7时内蒙古自治区新冠肺炎疫情最新情况
+　　截至2020年3月31日24时，内蒙古自治区已连续42日无新增本土新冠肺炎确诊病例、无新增本土新冠肺炎疑似病例。
+　　2020年3月31日7时至4月1日7时，内蒙古自治区报告新增境外输入新冠肺炎确诊病例4例、无新增疑似病例。
+　　截至2020年4月1日7时，内蒙古自治区累计报告境外输入新冠肺炎确诊病例36例、疑似病例24例。
+　　截至2020年3月31日24时，内蒙古自治区无症状感染者50例，现在隔离医学观察中。
+　　以上患者均在定点医院接受隔离治疗，所有密切接触者均在呼和浩特市定点场所集中隔离医学观察，全程实行闭环管理。
+　　自治区党委、政府高度重视境外人员经停呼和浩特市疫情防控工作和无症状感染者的相关情况，严格按照国家相关要求，认真落实各项防控措施。</t>
   </si>
 </sst>
 </file>
@@ -10892,10 +11343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT51"/>
+  <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="AA34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH60" sqref="AH60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10978,10 +11429,10 @@
         <v>3308</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>3259</v>
@@ -10996,13 +11447,13 @@
         <v>3262</v>
       </c>
       <c r="T1" s="28" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>3308</v>
+        <v>3312</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>3308</v>
+        <v>3313</v>
       </c>
       <c r="W1" s="16" t="s">
         <v>3263</v>
@@ -11098,24 +11549,20 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="12">
+        <v>4</v>
+      </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="25" t="s">
-        <v>3309</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>3310</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>3311</v>
+      <c r="M2" s="27">
+        <v>1</v>
       </c>
       <c r="P2" s="12">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="22">
         <v>74</v>
@@ -11123,14 +11570,8 @@
       <c r="S2" s="13">
         <v>1</v>
       </c>
-      <c r="T2" s="28" t="s">
-        <v>3312</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>3313</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>3314</v>
+      <c r="T2" s="27">
+        <v>1</v>
       </c>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
@@ -11140,8 +11581,12 @@
       <c r="Z2" s="14">
         <v>43922</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2"/>
+      <c r="AA2" s="23" t="s">
+        <v>3315</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC2" s="15"/>
       <c r="AF2" s="15"/>
       <c r="AG2" s="13" t="s">
@@ -11188,14 +11633,19 @@
       <c r="R3" s="21">
         <v>7</v>
       </c>
+      <c r="T3" s="26"/>
       <c r="Y3" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z3" s="14">
         <v>43922</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3"/>
+      <c r="AA3" s="23" t="s">
+        <v>3316</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG3" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11232,14 +11682,19 @@
         <v>771</v>
       </c>
       <c r="R4" s="20"/>
+      <c r="T4" s="27"/>
       <c r="Y4" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z4" s="14">
         <v>43922</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4"/>
+      <c r="AA4" s="23" t="s">
+        <v>3317</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC4" s="15"/>
       <c r="AG4" s="13" t="s">
         <v>3296</v>
@@ -11282,14 +11737,19 @@
       <c r="R5" s="20">
         <v>6</v>
       </c>
+      <c r="T5" s="27"/>
       <c r="Y5" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z5" s="14">
         <v>43922</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5"/>
+      <c r="AA5" s="23" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG5" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11331,14 +11791,19 @@
       <c r="R6" s="21">
         <v>1</v>
       </c>
+      <c r="T6" s="27"/>
       <c r="Y6" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z6" s="14">
         <v>43922</v>
       </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6"/>
+      <c r="AA6" s="23" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC6" s="15"/>
       <c r="AG6" s="13" t="s">
         <v>3296</v>
@@ -11378,14 +11843,19 @@
       <c r="R7" s="21">
         <v>11</v>
       </c>
+      <c r="T7" s="27"/>
       <c r="Y7" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z7" s="14">
         <v>43922</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7"/>
+      <c r="AA7" s="23" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG7" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11427,14 +11897,19 @@
       <c r="R8" s="21">
         <v>9</v>
       </c>
+      <c r="T8" s="27"/>
       <c r="Y8" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z8" s="14">
         <v>43922</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8"/>
+      <c r="AA8" s="23" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC8" s="15"/>
       <c r="AG8" s="13" t="s">
         <v>3296</v>
@@ -11477,14 +11952,19 @@
       <c r="R9" s="21">
         <v>1</v>
       </c>
+      <c r="T9" s="27"/>
       <c r="Y9" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z9" s="14">
         <v>43922</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9"/>
+      <c r="AA9" s="23" t="s">
+        <v>3322</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG9" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11526,14 +12006,19 @@
       <c r="R10" s="21">
         <v>1</v>
       </c>
+      <c r="T10" s="27"/>
       <c r="Y10" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z10" s="14">
         <v>43922</v>
       </c>
-      <c r="AA10" s="23"/>
-      <c r="AB10"/>
+      <c r="AA10" s="23" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC10" s="15"/>
       <c r="AG10" s="13" t="s">
         <v>3296</v>
@@ -11573,14 +12058,19 @@
       <c r="R11" s="21">
         <v>11</v>
       </c>
+      <c r="T11" s="27"/>
       <c r="Y11" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z11" s="14">
         <v>43922</v>
       </c>
-      <c r="AA11" s="23"/>
-      <c r="AB11"/>
+      <c r="AA11" s="23" t="s">
+        <v>3324</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG11" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11622,14 +12112,19 @@
       <c r="R12" s="21">
         <v>7</v>
       </c>
+      <c r="T12" s="27"/>
       <c r="Y12" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z12" s="14">
         <v>43922</v>
       </c>
-      <c r="AA12" s="23"/>
-      <c r="AB12"/>
+      <c r="AA12" s="23" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC12" s="15"/>
       <c r="AG12" s="13" t="s">
         <v>3296</v>
@@ -11672,14 +12167,19 @@
       <c r="R13" s="21">
         <v>3</v>
       </c>
+      <c r="T13" s="27"/>
       <c r="Y13" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z13" s="14">
         <v>43922</v>
       </c>
-      <c r="AA13" s="23"/>
-      <c r="AB13"/>
+      <c r="AA13" s="23" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG13" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11721,14 +12221,19 @@
       <c r="R14" s="21">
         <v>1</v>
       </c>
+      <c r="T14" s="27"/>
       <c r="Y14" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z14" s="14">
         <v>43922</v>
       </c>
-      <c r="AA14" s="23"/>
-      <c r="AB14"/>
+      <c r="AA14" s="23" t="s">
+        <v>3327</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC14" s="15"/>
       <c r="AG14" s="13" t="s">
         <v>3296</v>
@@ -11766,14 +12271,19 @@
         <v>748</v>
       </c>
       <c r="R15" s="20"/>
+      <c r="T15" s="27"/>
       <c r="Y15" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z15" s="14">
         <v>43922</v>
       </c>
-      <c r="AA15" s="23"/>
-      <c r="AB15"/>
+      <c r="AA15" s="23" t="s">
+        <v>3328</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG15" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11812,14 +12322,19 @@
       <c r="R16" s="21">
         <v>9</v>
       </c>
+      <c r="T16" s="27"/>
       <c r="Y16" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z16" s="14">
         <v>43922</v>
       </c>
-      <c r="AA16" s="23"/>
-      <c r="AB16"/>
+      <c r="AA16" s="23" t="s">
+        <v>3329</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC16" s="15"/>
       <c r="AG16" s="13" t="s">
         <v>3296</v>
@@ -11862,14 +12377,19 @@
       <c r="R17" s="21">
         <v>2</v>
       </c>
+      <c r="T17" s="27"/>
       <c r="Y17" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z17" s="14">
         <v>43922</v>
       </c>
-      <c r="AA17" s="23"/>
-      <c r="AB17"/>
+      <c r="AA17" s="23" t="s">
+        <v>3330</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG17" s="13" t="s">
         <v>3296</v>
       </c>
@@ -11911,14 +12431,19 @@
       <c r="R18" s="21">
         <v>2</v>
       </c>
+      <c r="T18" s="27"/>
       <c r="Y18" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z18" s="14">
         <v>43922</v>
       </c>
-      <c r="AA18" s="23"/>
-      <c r="AB18"/>
+      <c r="AA18" s="23" t="s">
+        <v>3331</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC18" s="15"/>
       <c r="AG18" s="13" t="s">
         <v>3296</v>
@@ -11961,14 +12486,19 @@
       <c r="R19" s="21">
         <v>1</v>
       </c>
+      <c r="T19" s="27"/>
       <c r="Y19" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z19" s="14">
         <v>43922</v>
       </c>
-      <c r="AA19" s="23"/>
-      <c r="AB19"/>
+      <c r="AA19" s="23" t="s">
+        <v>3332</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG19" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12010,14 +12540,19 @@
       <c r="R20" s="20">
         <v>1</v>
       </c>
+      <c r="T20" s="27"/>
       <c r="Y20" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z20" s="14">
         <v>43922</v>
       </c>
-      <c r="AA20" s="23"/>
-      <c r="AB20"/>
+      <c r="AA20" s="23" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC20" s="15"/>
       <c r="AG20" s="13" t="s">
         <v>3296</v>
@@ -12060,14 +12595,19 @@
       <c r="R21" s="20">
         <v>3</v>
       </c>
+      <c r="T21" s="27"/>
       <c r="Y21" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z21" s="14">
         <v>43922</v>
       </c>
-      <c r="AA21" s="23"/>
-      <c r="AB21"/>
+      <c r="AA21" s="23" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG21" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12109,14 +12649,19 @@
       <c r="S22" s="13">
         <v>1</v>
       </c>
+      <c r="T22" s="27"/>
       <c r="Y22" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z22" s="14">
         <v>43922</v>
       </c>
-      <c r="AA22" s="23"/>
-      <c r="AB22"/>
+      <c r="AA22" s="23" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC22" s="15"/>
       <c r="AG22" s="13" t="s">
         <v>3296</v>
@@ -12159,14 +12704,19 @@
       <c r="R23" s="21">
         <v>2</v>
       </c>
+      <c r="T23" s="27"/>
       <c r="Y23" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z23" s="14">
         <v>43922</v>
       </c>
-      <c r="AA23" s="23"/>
-      <c r="AB23"/>
+      <c r="AA23" s="23" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG23" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12211,14 +12761,19 @@
       <c r="S24" s="13">
         <v>1</v>
       </c>
+      <c r="T24" s="27"/>
       <c r="Y24" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z24" s="14">
         <v>43922</v>
       </c>
-      <c r="AA24" s="23"/>
-      <c r="AB24"/>
+      <c r="AA24" s="23" t="s">
+        <v>3337</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC24" s="15"/>
       <c r="AG24" s="13" t="s">
         <v>3296</v>
@@ -12261,14 +12816,19 @@
       <c r="R25" s="21">
         <v>4</v>
       </c>
+      <c r="T25" s="27"/>
       <c r="Y25" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z25" s="14">
         <v>43922</v>
       </c>
-      <c r="AA25" s="23"/>
-      <c r="AB25"/>
+      <c r="AA25" s="23" t="s">
+        <v>3338</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG25" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12307,14 +12867,19 @@
       <c r="R26" s="21">
         <v>9</v>
       </c>
+      <c r="T26" s="27"/>
       <c r="Y26" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z26" s="14">
         <v>43922</v>
       </c>
-      <c r="AA26" s="23"/>
-      <c r="AB26"/>
+      <c r="AA26" s="23" t="s">
+        <v>3339</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC26" s="15"/>
       <c r="AG26" s="13" t="s">
         <v>3296</v>
@@ -12357,14 +12922,19 @@
       <c r="R27" s="21">
         <v>4</v>
       </c>
+      <c r="T27" s="27"/>
       <c r="Y27" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z27" s="14">
         <v>43922</v>
       </c>
-      <c r="AA27" s="23"/>
-      <c r="AB27"/>
+      <c r="AA27" s="23" t="s">
+        <v>3340</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG27" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12406,14 +12976,19 @@
       <c r="R28" s="21">
         <v>1</v>
       </c>
+      <c r="T28" s="27"/>
       <c r="Y28" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z28" s="14">
         <v>43922</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28"/>
+      <c r="AA28" s="23" t="s">
+        <v>3341</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC28" s="15"/>
       <c r="AG28" s="13" t="s">
         <v>3296</v>
@@ -12456,14 +13031,19 @@
       <c r="R29" s="20">
         <v>4</v>
       </c>
+      <c r="T29" s="27"/>
       <c r="Y29" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z29" s="14">
         <v>43922</v>
       </c>
-      <c r="AA29" s="23"/>
-      <c r="AB29"/>
+      <c r="AA29" s="23" t="s">
+        <v>3342</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG29" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12502,14 +13082,19 @@
       <c r="R30" s="21">
         <v>7</v>
       </c>
+      <c r="T30" s="27"/>
       <c r="Y30" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z30" s="14">
         <v>43922</v>
       </c>
-      <c r="AA30" s="23"/>
-      <c r="AB30"/>
+      <c r="AA30" s="23" t="s">
+        <v>3343</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC30" s="15"/>
       <c r="AG30" s="13" t="s">
         <v>3296</v>
@@ -12552,14 +13137,19 @@
       <c r="R31" s="21">
         <v>3</v>
       </c>
+      <c r="T31" s="27"/>
       <c r="Y31" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z31" s="14">
         <v>43922</v>
       </c>
-      <c r="AA31" s="23"/>
-      <c r="AB31"/>
+      <c r="AA31" s="23" t="s">
+        <v>3344</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG31" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12601,14 +13191,19 @@
       <c r="R32" s="21">
         <v>2</v>
       </c>
+      <c r="T32" s="27"/>
       <c r="Y32" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z32" s="14">
         <v>43922</v>
       </c>
-      <c r="AA32" s="23"/>
-      <c r="AB32"/>
+      <c r="AA32" s="23" t="s">
+        <v>3345</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC32" s="15"/>
       <c r="AG32" s="13" t="s">
         <v>3296</v>
@@ -12651,14 +13246,19 @@
       <c r="R33" s="20">
         <v>1</v>
       </c>
+      <c r="T33" s="27"/>
       <c r="Y33" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z33" s="14">
         <v>43922</v>
       </c>
-      <c r="AA33" s="23"/>
-      <c r="AB33"/>
+      <c r="AA33" s="23" t="s">
+        <v>3346</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG33" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12700,14 +13300,19 @@
       <c r="R34" s="20">
         <v>1</v>
       </c>
+      <c r="T34" s="27"/>
       <c r="Y34" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z34" s="14">
         <v>43922</v>
       </c>
-      <c r="AA34" s="23"/>
-      <c r="AB34"/>
+      <c r="AA34" s="23" t="s">
+        <v>3347</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC34" s="15"/>
       <c r="AG34" s="13" t="s">
         <v>3296</v>
@@ -12747,14 +13352,19 @@
       <c r="R35" s="21">
         <v>7</v>
       </c>
+      <c r="T35" s="27"/>
       <c r="Y35" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z35" s="14">
         <v>43922</v>
       </c>
-      <c r="AA35" s="23"/>
-      <c r="AB35"/>
+      <c r="AA35" s="23" t="s">
+        <v>3348</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG35" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12796,14 +13406,19 @@
       <c r="R36" s="21">
         <v>5</v>
       </c>
+      <c r="T36" s="27"/>
       <c r="Y36" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z36" s="14">
         <v>43922</v>
       </c>
-      <c r="AA36" s="23"/>
-      <c r="AB36"/>
+      <c r="AA36" s="23" t="s">
+        <v>3349</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC36" s="15"/>
       <c r="AG36" s="13" t="s">
         <v>3296</v>
@@ -12841,14 +13456,19 @@
         <v>784</v>
       </c>
       <c r="R37" s="20"/>
+      <c r="T37" s="27"/>
       <c r="Y37" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z37" s="14">
         <v>43922</v>
       </c>
-      <c r="AA37" s="23"/>
-      <c r="AB37"/>
+      <c r="AA37" s="23" t="s">
+        <v>3350</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG37" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12890,14 +13510,19 @@
       <c r="R38" s="21">
         <v>1</v>
       </c>
+      <c r="T38" s="27"/>
       <c r="Y38" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z38" s="14">
         <v>43922</v>
       </c>
-      <c r="AA38" s="23"/>
-      <c r="AB38"/>
+      <c r="AA38" s="23" t="s">
+        <v>3351</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC38" s="15"/>
       <c r="AG38" s="13" t="s">
         <v>3296</v>
@@ -12940,14 +13565,19 @@
       <c r="R39" s="21">
         <v>1</v>
       </c>
+      <c r="T39" s="27"/>
       <c r="Y39" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z39" s="14">
         <v>43922</v>
       </c>
-      <c r="AA39" s="23"/>
-      <c r="AB39"/>
+      <c r="AA39" s="23" t="s">
+        <v>3352</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG39" s="13" t="s">
         <v>3296</v>
       </c>
@@ -12986,14 +13616,19 @@
       <c r="R40" s="21">
         <v>3</v>
       </c>
+      <c r="T40" s="27"/>
       <c r="Y40" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z40" s="14">
         <v>43922</v>
       </c>
-      <c r="AA40" s="23"/>
-      <c r="AB40"/>
+      <c r="AA40" s="23" t="s">
+        <v>3353</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC40" s="15"/>
       <c r="AG40" s="13" t="s">
         <v>3296</v>
@@ -13033,14 +13668,19 @@
       <c r="R41" s="20">
         <v>1</v>
       </c>
+      <c r="T41" s="27"/>
       <c r="Y41" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z41" s="14">
         <v>43922</v>
       </c>
-      <c r="AA41" s="23"/>
-      <c r="AB41"/>
+      <c r="AA41" s="23" t="s">
+        <v>3354</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG41" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13082,14 +13722,19 @@
       <c r="R42" s="20">
         <v>1</v>
       </c>
+      <c r="T42" s="27"/>
       <c r="Y42" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z42" s="14">
         <v>43922</v>
       </c>
-      <c r="AA42" s="23"/>
-      <c r="AB42"/>
+      <c r="AA42" s="23" t="s">
+        <v>3355</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC42" s="15"/>
       <c r="AG42" s="13" t="s">
         <v>3296</v>
@@ -13129,14 +13774,19 @@
       <c r="R43" s="21">
         <v>2</v>
       </c>
+      <c r="T43" s="27"/>
       <c r="Y43" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z43" s="14">
         <v>43922</v>
       </c>
-      <c r="AA43" s="23"/>
-      <c r="AB43"/>
+      <c r="AA43" s="23" t="s">
+        <v>3356</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG43" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13178,14 +13828,19 @@
       <c r="R44" s="21">
         <v>2</v>
       </c>
+      <c r="T44" s="27"/>
       <c r="Y44" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z44" s="14">
         <v>43922</v>
       </c>
-      <c r="AA44" s="23"/>
-      <c r="AB44"/>
+      <c r="AA44" s="23" t="s">
+        <v>3357</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>3314</v>
+      </c>
       <c r="AC44" s="15"/>
       <c r="AG44" s="13" t="s">
         <v>3296</v>
@@ -13217,15 +13872,14 @@
         <v>14</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>3301</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="P45" s="13">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="13">
-        <v>25</v>
+        <v>3287</v>
+      </c>
+      <c r="M45" s="27">
+        <v>1</v>
+      </c>
+      <c r="R45" s="21"/>
+      <c r="T45" s="27">
+        <v>1</v>
       </c>
       <c r="Y45" s="24" t="s">
         <v>3299</v>
@@ -13233,8 +13887,12 @@
       <c r="Z45" s="14">
         <v>43922</v>
       </c>
-      <c r="AA45" s="23"/>
-      <c r="AB45"/>
+      <c r="AA45" s="23" t="s">
+        <v>3358</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG45" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13250,7 +13908,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="C46" s="14">
         <v>43921</v>
@@ -13267,23 +13925,30 @@
       <c r="G46" s="13" t="s">
         <v>3301</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>3302</v>
-      </c>
+      <c r="I46" s="12">
+        <v>4</v>
+      </c>
+      <c r="J46" s="12"/>
       <c r="P46" s="13">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q46" s="13">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="T46" s="27"/>
       <c r="Y46" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z46" s="14">
         <v>43922</v>
       </c>
-      <c r="AA46" s="23"/>
-      <c r="AB46"/>
+      <c r="AA46" s="23" t="s">
+        <v>3359</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AC46" s="15"/>
       <c r="AG46" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13317,17 +13982,27 @@
         <v>3301</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>3303</v>
-      </c>
+        <v>3302</v>
+      </c>
+      <c r="P47" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>8</v>
+      </c>
+      <c r="T47" s="27"/>
       <c r="Y47" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z47" s="14">
         <v>43922</v>
       </c>
-      <c r="AA47" s="23"/>
-      <c r="AB47"/>
-      <c r="AC47" s="15"/>
+      <c r="AA47" s="23" t="s">
+        <v>3359</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG47" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13361,19 +14036,22 @@
         <v>3301</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="Q48" s="13">
-        <v>1</v>
-      </c>
+        <v>3303</v>
+      </c>
+      <c r="T48" s="27"/>
       <c r="Y48" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z48" s="14">
         <v>43922</v>
       </c>
-      <c r="AA48" s="23"/>
-      <c r="AB48"/>
+      <c r="AA48" s="23" t="s">
+        <v>3360</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AC48" s="15"/>
       <c r="AG48" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13407,19 +14085,24 @@
         <v>3301</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>3304</v>
-      </c>
-      <c r="P49" s="13">
-        <v>10</v>
-      </c>
+        <v>3307</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>1</v>
+      </c>
+      <c r="T49" s="27"/>
       <c r="Y49" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z49" s="14">
         <v>43922</v>
       </c>
-      <c r="AA49" s="23"/>
-      <c r="AB49"/>
+      <c r="AA49" s="23" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG49" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13453,19 +14136,24 @@
         <v>3301</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="Q50" s="13">
-        <v>7</v>
-      </c>
+        <v>3304</v>
+      </c>
+      <c r="P50" s="13">
+        <v>10</v>
+      </c>
+      <c r="T50" s="27"/>
       <c r="Y50" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z50" s="14">
         <v>43922</v>
       </c>
-      <c r="AA50" s="23"/>
-      <c r="AB50"/>
+      <c r="AA50" s="23" t="s">
+        <v>3362</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG50" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13499,22 +14187,24 @@
         <v>3301</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>3305</v>
-      </c>
-      <c r="P51" s="13">
-        <v>11</v>
+        <v>3306</v>
       </c>
       <c r="Q51" s="13">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="T51" s="27"/>
       <c r="Y51" s="24" t="s">
         <v>3299</v>
       </c>
       <c r="Z51" s="14">
         <v>43922</v>
       </c>
-      <c r="AA51" s="23"/>
-      <c r="AB51"/>
+      <c r="AA51" s="23" t="s">
+        <v>3363</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>3314</v>
+      </c>
       <c r="AG51" s="13" t="s">
         <v>3296</v>
       </c>
@@ -13522,6 +14212,63 @@
         <v>3297</v>
       </c>
       <c r="AI51" s="13" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" ht="16.5" customHeight="1">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C52" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D52" s="14">
+        <v>43922</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I52" s="13">
+        <v>4</v>
+      </c>
+      <c r="P52" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>8</v>
+      </c>
+      <c r="T52" s="27"/>
+      <c r="Y52" s="24" t="s">
+        <v>3299</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>43922</v>
+      </c>
+      <c r="AA52" s="23" t="s">
+        <v>3364</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AG52" s="13" t="s">
+        <v>3296</v>
+      </c>
+      <c r="AH52" s="13" t="s">
+        <v>3297</v>
+      </c>
+      <c r="AI52" s="13" t="s">
         <v>3298</v>
       </c>
     </row>
@@ -13541,16 +14288,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F51" xr:uid="{B0D28F07-5235-4B2B-B8F2-FBAC99B5E579}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F52" xr:uid="{B0D28F07-5235-4B2B-B8F2-FBAC99B5E579}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28:J28 I29:L1048576 L28 I2:L27 M3:O1048576 P2:S1048576 W2:X1048576 T3:V1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G44 G52:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G45 G53:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44 H52:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H45 H53:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -13563,7 +14310,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F52:F1048576</xm:sqref>
+          <xm:sqref>F53:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
